--- a/data/trans_orig/IP18E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9080FB2F-562D-4D35-B48E-EE757AF33ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD5343E-3318-476B-8B3A-C7815517527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{83ECC6C2-7897-4CE7-9B3A-06D254053BBA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E759B2AE-A824-49D1-8514-20AC83E3E085}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,141 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Médico privado/particular</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
     <t>93,44%</t>
   </si>
   <si>
@@ -101,9 +230,6 @@
     <t>95,38%</t>
   </si>
   <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
     <t>2,91%</t>
   </si>
   <si>
@@ -122,18 +248,12 @@
     <t>5,97%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
     <t>1,96%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>Médico privado/particular</t>
-  </si>
-  <si>
     <t>3,26%</t>
   </si>
   <si>
@@ -161,112 +281,106 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -359,120 +473,6 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
     <t>91,34%</t>
   </si>
   <si>
@@ -563,6 +563,117 @@
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>93,94%</t>
   </si>
   <si>
@@ -614,9 +725,6 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
     <t>1,64%</t>
   </si>
   <si>
@@ -638,73 +746,79 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>93,92%</t>
@@ -782,120 +896,6 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>94,66%</t>
   </si>
   <si>
@@ -974,6 +974,126 @@
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
   </si>
   <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>93,05%</t>
   </si>
   <si>
@@ -1019,9 +1139,6 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>2,88%</t>
   </si>
   <si>
@@ -1034,76 +1151,73 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>89,87%</t>
@@ -1151,120 +1265,6 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>94,11%</t>
   </si>
   <si>
@@ -1337,6 +1337,72 @@
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
     <t>95,16%</t>
   </si>
   <si>
@@ -1397,52 +1463,73 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>90,86%</t>
@@ -1515,93 +1602,6 @@
   </si>
   <si>
     <t>4,55%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
   </si>
   <si>
     <t>89,48%</t>
@@ -2065,7 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B269A8A4-0822-41DE-BAA6-51567E6ECAF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC0F266-1A34-4EB1-9383-7C4576347823}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>165616</v>
+        <v>22186</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2198,157 +2198,157 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>151234</v>
+        <v>19504</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41690</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>494</v>
-      </c>
-      <c r="N4" s="7">
-        <v>316849</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5153</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5291</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10444</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>5782</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>4368</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>10150</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2357,28 +2357,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,54 +2387,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>177235</v>
+        <v>22186</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>160894</v>
+        <v>19504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>528</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>338128</v>
+        <v>41690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2446,13 +2446,13 @@
         <v>97271</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>136</v>
@@ -2461,13 +2461,13 @@
         <v>91159</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>284</v>
@@ -2476,19 +2476,19 @@
         <v>188430</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2512,13 +2512,13 @@
         <v>2821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2527,19 +2527,19 @@
         <v>5508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -2548,13 +2548,13 @@
         <v>4832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2563,13 +2563,13 @@
         <v>1344</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2578,19 +2578,19 @@
         <v>6176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2629,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2650,13 @@
         <v>104790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -2665,13 +2665,13 @@
         <v>95325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -2680,219 +2680,219 @@
         <v>200115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>164667</v>
+        <v>165616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>178219</v>
+        <v>151234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="N14" s="7">
-        <v>342886</v>
+        <v>316849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>7465</v>
+        <v>5153</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7">
-        <v>4326</v>
+        <v>5291</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>11791</v>
+        <v>10444</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5690</v>
+        <v>5782</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>8328</v>
+        <v>4368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>14018</v>
+        <v>10150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,210 +2901,210 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D18" s="7">
-        <v>177822</v>
+        <v>177235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I18" s="7">
-        <v>191556</v>
+        <v>160894</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="N18" s="7">
-        <v>369378</v>
+        <v>338128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="D19" s="7">
-        <v>22186</v>
+        <v>120895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="I19" s="7">
-        <v>19504</v>
+        <v>110971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="N19" s="7">
-        <v>41690</v>
+        <v>231865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>6455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>5223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>11678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>3943</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>5509</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>9452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>111</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>112</v>
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>113</v>
@@ -3158,49 +3158,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D23" s="7">
-        <v>22186</v>
+        <v>131293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I23" s="7">
-        <v>19504</v>
+        <v>121703</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>54</v>
+        <v>405</v>
       </c>
       <c r="N23" s="7">
-        <v>41690</v>
+        <v>252995</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D24" s="7">
-        <v>120895</v>
+        <v>164667</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>115</v>
@@ -3226,10 +3226,10 @@
         <v>117</v>
       </c>
       <c r="H24" s="7">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>110971</v>
+        <v>178219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>118</v>
@@ -3241,127 +3241,127 @@
         <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="N24" s="7">
-        <v>231865</v>
+        <v>342886</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>6455</v>
+        <v>7465</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4326</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5223</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>17</v>
+      </c>
+      <c r="N25" s="7">
+        <v>11791</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M25" s="7">
-        <v>18</v>
-      </c>
-      <c r="N25" s="7">
-        <v>11678</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>3943</v>
+        <v>5690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8328</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5509</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>19</v>
+      </c>
+      <c r="N26" s="7">
+        <v>14018</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="7">
-        <v>16</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9452</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -3370,40 +3370,40 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>683</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>683</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>143</v>
@@ -3415,49 +3415,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="D28" s="7">
-        <v>131293</v>
+        <v>177822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="I28" s="7">
-        <v>121703</v>
+        <v>191556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="N28" s="7">
-        <v>252995</v>
+        <v>369378</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3474,7 @@
         <v>570635</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>144</v>
@@ -3516,7 +3516,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>33</v>
@@ -3528,7 +3528,7 @@
         <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>153</v>
@@ -3540,7 +3540,7 @@
         <v>17661</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>154</v>
@@ -3567,7 +3567,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>29</v>
@@ -3618,7 +3618,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>169</v>
@@ -3645,7 +3645,7 @@
         <v>170</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>171</v>
@@ -3660,7 +3660,7 @@
         <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>172</v>
@@ -3678,13 +3678,13 @@
         <v>613326</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>878</v>
@@ -3693,13 +3693,13 @@
         <v>588981</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>1801</v>
@@ -3708,13 +3708,13 @@
         <v>1202307</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA73592-A0A1-468B-8403-6B404D184392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480E07D8-C535-4044-8E0B-3FE1B589E19E}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,157 +3853,157 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>194412</v>
+        <v>24454</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19654</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="7">
-        <v>292</v>
-      </c>
-      <c r="I4" s="7">
-        <v>188695</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44108</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="7">
-        <v>573</v>
-      </c>
-      <c r="N4" s="7">
-        <v>383107</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7829</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1442</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>9270</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>4712</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1855</v>
+        <v>923</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>6567</v>
+        <v>923</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4012,43 +4012,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>656</v>
+        <v>926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,54 +4057,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>206953</v>
+        <v>24454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>192647</v>
+        <v>21503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>597</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>399600</v>
+        <v>45957</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4116,13 @@
         <v>119669</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
@@ -4131,13 +4131,13 @@
         <v>102623</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>312</v>
@@ -4146,19 +4146,19 @@
         <v>222292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -4170,10 +4170,10 @@
         <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4182,13 +4182,13 @@
         <v>3644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4197,19 +4197,19 @@
         <v>4346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -4218,13 +4218,13 @@
         <v>1437</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4233,13 +4233,13 @@
         <v>3095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4248,19 +4248,19 @@
         <v>4531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -4269,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4284,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4299,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4320,13 @@
         <v>121807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -4335,13 +4335,13 @@
         <v>109362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -4350,174 +4350,174 @@
         <v>231169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>190146</v>
+        <v>194412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="I14" s="7">
-        <v>187146</v>
+        <v>188695</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="N14" s="7">
-        <v>377292</v>
+        <v>383107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>9579</v>
+        <v>7829</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>9026</v>
+        <v>1442</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M15" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>18604</v>
+        <v>9270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>2729</v>
+        <v>4712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>3730</v>
+        <v>1855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>6460</v>
+        <v>6567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4526,43 +4526,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,210 +4571,210 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D18" s="7">
-        <v>202454</v>
+        <v>206953</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="I18" s="7">
-        <v>199902</v>
+        <v>192647</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="N18" s="7">
-        <v>402356</v>
+        <v>399600</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="D19" s="7">
-        <v>24454</v>
+        <v>145119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I19" s="7">
-        <v>19654</v>
+        <v>132698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="N19" s="7">
-        <v>44108</v>
+        <v>277818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>7240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>6173</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>13413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>3773</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>923</v>
+        <v>3729</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N21" s="7">
-        <v>923</v>
+        <v>7502</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>258</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>259</v>
@@ -4828,49 +4828,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="D23" s="7">
-        <v>24454</v>
+        <v>156132</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>21503</v>
+        <v>142600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>52</v>
+        <v>461</v>
       </c>
       <c r="N23" s="7">
-        <v>45957</v>
+        <v>298732</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,10 +4881,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D24" s="7">
-        <v>145119</v>
+        <v>190146</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>260</v>
@@ -4896,10 +4896,10 @@
         <v>262</v>
       </c>
       <c r="H24" s="7">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="I24" s="7">
-        <v>132698</v>
+        <v>187146</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>263</v>
@@ -4911,10 +4911,10 @@
         <v>265</v>
       </c>
       <c r="M24" s="7">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="N24" s="7">
-        <v>277818</v>
+        <v>377292</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>266</v>
@@ -4929,13 +4929,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>7240</v>
+        <v>9579</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>269</v>
@@ -4947,28 +4947,28 @@
         <v>271</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>6173</v>
+        <v>9026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N25" s="7">
-        <v>13413</v>
+        <v>18604</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>274</v>
@@ -4980,13 +4980,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>3773</v>
+        <v>2729</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>276</v>
@@ -4998,40 +4998,40 @@
         <v>278</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>7502</v>
+        <v>6460</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5070,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,49 +5085,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D28" s="7">
-        <v>156132</v>
+        <v>202454</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="I28" s="7">
-        <v>142600</v>
+        <v>199902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="N28" s="7">
-        <v>298732</v>
+        <v>402356</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>36</v>
@@ -5231,13 +5231,13 @@
         <v>299</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>19</v>
@@ -5249,7 +5249,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>301</v>
@@ -5279,7 +5279,7 @@
         <v>305</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>306</v>
@@ -5288,7 +5288,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -5315,7 +5315,7 @@
         <v>307</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>308</v>
@@ -5330,7 +5330,7 @@
         <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>309</v>
@@ -5348,13 +5348,13 @@
         <v>711800</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>959</v>
@@ -5363,13 +5363,13 @@
         <v>666014</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>1971</v>
@@ -5378,13 +5378,13 @@
         <v>1377814</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8BA77C-24C2-4ED1-B09F-0901693C5517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7EDDCC-C347-4B00-845D-82729AABC0FD}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5523,157 +5523,157 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>199554</v>
+        <v>24502</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19811</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="7">
-        <v>295</v>
-      </c>
-      <c r="I4" s="7">
-        <v>183010</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44314</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M4" s="7">
-        <v>590</v>
-      </c>
-      <c r="N4" s="7">
-        <v>382564</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>6291</v>
+        <v>562</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7686</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M5" s="7">
-        <v>22</v>
-      </c>
-      <c r="N5" s="7">
-        <v>13977</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2629</v>
+        <v>509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>3177</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>5806</v>
+        <v>509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5682,13 +5682,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5712,13 +5712,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,54 +5727,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>208474</v>
+        <v>25574</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>193873</v>
+        <v>20847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>621</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>402347</v>
+        <v>46421</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5789,10 +5789,10 @@
         <v>287</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>139</v>
@@ -5801,13 +5801,13 @@
         <v>94987</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>278</v>
@@ -5816,19 +5816,19 @@
         <v>198081</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -5837,13 +5837,13 @@
         <v>2981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5852,13 +5852,13 @@
         <v>3552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5867,19 +5867,19 @@
         <v>6533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -5888,13 +5888,13 @@
         <v>1418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5903,13 +5903,13 @@
         <v>3296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -5921,7 +5921,7 @@
         <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>298</v>
@@ -5930,7 +5930,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5939,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5954,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5990,13 @@
         <v>107493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -6005,13 +6005,13 @@
         <v>101835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>294</v>
@@ -6020,174 +6020,174 @@
         <v>209328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>163177</v>
+        <v>199554</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="7">
+        <v>295</v>
+      </c>
+      <c r="I14" s="7">
+        <v>183010</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>590</v>
+      </c>
+      <c r="N14" s="7">
+        <v>382564</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>180358</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M14" s="7">
-        <v>472</v>
-      </c>
-      <c r="N14" s="7">
-        <v>343535</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6291</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7686</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
-        <v>15473</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H15" s="7">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7">
-        <v>10774</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="N15" s="7">
+        <v>13977</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="M15" s="7">
-        <v>38</v>
-      </c>
-      <c r="N15" s="7">
-        <v>26248</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2924</v>
+        <v>2629</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3177</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1516</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>4440</v>
+        <v>5806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6196,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6226,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,78 +6241,78 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="D18" s="7">
-        <v>181574</v>
+        <v>208474</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="I18" s="7">
-        <v>192648</v>
+        <v>193873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>516</v>
+        <v>621</v>
       </c>
       <c r="N18" s="7">
-        <v>374222</v>
+        <v>402347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="D19" s="7">
-        <v>24502</v>
+        <v>139333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I19" s="7">
-        <v>19811</v>
+        <v>130168</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>372</v>
@@ -6321,130 +6321,130 @@
         <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="N19" s="7">
-        <v>44314</v>
+        <v>269501</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>562</v>
+        <v>4767</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>1036</v>
+        <v>5361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>1598</v>
+        <v>10128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>509</v>
+        <v>1845</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>2081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>509</v>
+        <v>3926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6453,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6483,13 +6483,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,49 +6498,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>25574</v>
+        <v>145945</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I23" s="7">
-        <v>20847</v>
+        <v>137610</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="N23" s="7">
-        <v>46421</v>
+        <v>283555</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,157 +6551,157 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D24" s="7">
-        <v>139333</v>
+        <v>163177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="H24" s="7">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="I24" s="7">
-        <v>130168</v>
+        <v>180358</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>388</v>
+        <v>263</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="N24" s="7">
-        <v>269501</v>
+        <v>343535</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>391</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>4767</v>
+        <v>15473</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>5361</v>
+        <v>10774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>10128</v>
+        <v>26248</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>1845</v>
+        <v>2924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>2081</v>
+        <v>1516</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>3926</v>
+        <v>4440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -6710,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6725,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6740,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,49 +6755,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D28" s="7">
-        <v>145945</v>
+        <v>181574</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I28" s="7">
-        <v>137610</v>
+        <v>192648</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="N28" s="7">
-        <v>283555</v>
+        <v>374222</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6835,7 @@
         <v>412</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>1811</v>
@@ -6847,7 +6847,7 @@
         <v>413</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>414</v>
@@ -6856,7 +6856,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>46</v>
@@ -6871,7 +6871,7 @@
         <v>416</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7">
         <v>43</v>
@@ -6883,7 +6883,7 @@
         <v>417</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>418</v>
@@ -6907,7 +6907,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>14</v>
@@ -6922,7 +6922,7 @@
         <v>423</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -6958,7 +6958,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6967,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6982,13 +6982,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6997,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>430</v>
@@ -7018,13 +7018,13 @@
         <v>669060</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>974</v>
@@ -7033,13 +7033,13 @@
         <v>646814</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>1930</v>
@@ -7048,13 +7048,13 @@
         <v>1315873</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7746C18-0D5D-4541-B835-875205026CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4387CF-5F8A-4493-BF12-D2F34141E404}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7193,157 +7193,157 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>46265</v>
+        <v>4670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4563</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7">
-        <v>26333</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9233</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="M4" s="7">
-        <v>111</v>
-      </c>
-      <c r="N4" s="7">
-        <v>72598</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1058</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>441</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2812</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -7352,43 +7352,43 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,54 +7397,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -7456,13 +7456,13 @@
         <v>15346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -7471,13 +7471,13 @@
         <v>11239</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -7486,19 +7486,19 @@
         <v>26583</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -7507,13 +7507,13 @@
         <v>539</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7525,10 +7525,10 @@
         <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -7537,19 +7537,19 @@
         <v>1132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7573,13 +7573,13 @@
         <v>505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -7588,19 +7588,19 @@
         <v>505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -7609,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7624,13 +7624,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7639,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7660,13 @@
         <v>15885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7675,13 +7675,13 @@
         <v>12337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -7690,174 +7690,174 @@
         <v>28221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>24896</v>
+        <v>46265</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>23450</v>
+        <v>26333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>48347</v>
+        <v>72598</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>559</v>
+        <v>1754</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>2146</v>
+        <v>1058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>479</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>2705</v>
+        <v>2812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>598</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1313</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>1946</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3010</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
       <c r="N16" s="7">
-        <v>4956</v>
+        <v>1912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -7866,43 +7866,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,210 +7911,210 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>4670</v>
+        <v>27457</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>4563</v>
+        <v>19016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>9233</v>
+        <v>46474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>2198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5663</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M21" s="7">
+        <v>7</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6501</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -8123,13 +8123,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8138,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>496</v>
@@ -8153,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,49 +8168,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N23" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,22 +8224,22 @@
         <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>27457</v>
+        <v>24896</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7">
-        <v>19016</v>
+        <v>23450</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>500</v>
@@ -8251,10 +8251,10 @@
         <v>502</v>
       </c>
       <c r="M24" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N24" s="7">
-        <v>46474</v>
+        <v>48347</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>503</v>
@@ -8269,79 +8269,79 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>1556</v>
+        <v>559</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2146</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>642</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>509</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>2198</v>
+        <v>2705</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>838</v>
+        <v>1946</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>513</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>5663</v>
+        <v>3010</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>514</v>
@@ -8353,10 +8353,10 @@
         <v>516</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>6501</v>
+        <v>4956</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>517</v>
@@ -8371,7 +8371,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -8380,13 +8380,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>520</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8395,13 +8395,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -8410,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>448</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,49 +8425,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I28" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N28" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8484,13 @@
         <v>118634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>521</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -8526,7 +8526,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -8535,7 +8535,7 @@
         <v>4409</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>528</v>
@@ -8553,7 +8553,7 @@
         <v>419</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>530</v>
@@ -8577,7 +8577,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>5</v>
@@ -8628,7 +8628,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -8637,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>543</v>
@@ -8652,13 +8652,13 @@
         <v>391</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8670,10 +8670,10 @@
         <v>544</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,13 +8688,13 @@
         <v>126425</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>153</v>
@@ -8703,13 +8703,13 @@
         <v>99923</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>341</v>
@@ -8718,13 +8718,13 @@
         <v>226348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E8D28E-4208-4274-98B3-ABDB3AED8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF99A5E5-E06A-4DDA-83E9-F56D3AA28A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9912493-2BB2-4832-BDCD-5649B1E56745}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA6EC586-790F-4E6E-A72B-1FF5870FC93E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="553">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -113,7 +113,7 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -128,1528 +128,1555 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
@@ -1658,19 +1685,19 @@
     <t>84,67%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F026F773-16DF-470A-B471-E01A80AD8A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A62F7A-CCD2-4381-BB03-D2896AA7E3A9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2547,10 +2574,10 @@
         <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,10 +2592,10 @@
         <v>2687</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>37</v>
@@ -2622,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>136</v>
@@ -2631,13 +2658,13 @@
         <v>91159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
         <v>284</v>
@@ -2646,13 +2673,13 @@
         <v>188430</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2735,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2747,13 @@
         <v>685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2741,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2750,13 +2777,13 @@
         <v>685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2798,13 @@
         <v>5782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2786,13 +2813,13 @@
         <v>4368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -2801,13 +2828,13 @@
         <v>10150</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2849,13 @@
         <v>5153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2837,13 +2864,13 @@
         <v>5291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2855,10 +2882,10 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2900,13 @@
         <v>165616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -2888,13 +2915,13 @@
         <v>151234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>494</v>
@@ -2903,13 +2930,13 @@
         <v>316849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +3055,7 @@
         <v>3943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>88</v>
@@ -3046,10 +3073,10 @@
         <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -3058,13 +3085,13 @@
         <v>9452</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3106,13 @@
         <v>6455</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3094,13 +3121,13 @@
         <v>5223</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -3109,13 +3136,13 @@
         <v>11678</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3157,13 @@
         <v>120895</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3145,13 +3172,13 @@
         <v>110971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>371</v>
@@ -3160,13 +3187,13 @@
         <v>231865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3249,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3240,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3249,13 +3276,13 @@
         <v>683</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3264,13 +3291,13 @@
         <v>683</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3312,13 @@
         <v>5690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3300,13 +3327,13 @@
         <v>8328</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3315,13 +3342,13 @@
         <v>14018</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3363,13 @@
         <v>7465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3351,13 +3378,13 @@
         <v>4326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -3366,13 +3393,13 @@
         <v>11791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3414,13 @@
         <v>164667</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
         <v>233</v>
@@ -3402,13 +3429,13 @@
         <v>178219</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M27" s="7">
         <v>477</v>
@@ -3420,10 +3447,10 @@
         <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3518,13 @@
         <v>685</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3506,13 +3533,13 @@
         <v>683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3521,13 +3548,13 @@
         <v>1368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3569,13 @@
         <v>20246</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -3557,13 +3584,13 @@
         <v>19550</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>59</v>
@@ -3572,13 +3599,13 @@
         <v>39796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3620,13 @@
         <v>21760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -3608,13 +3635,13 @@
         <v>17661</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -3623,13 +3650,13 @@
         <v>39421</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3671,13 @@
         <v>570635</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>820</v>
@@ -3659,13 +3686,13 @@
         <v>551087</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>1680</v>
@@ -3674,13 +3701,13 @@
         <v>1121722</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,7 +3763,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8622E-2548-4395-898C-F6821C9C4410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370AF48C-2982-41E0-B32C-4DF7B68EA777}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3774,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3887,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3896,13 +3923,13 @@
         <v>926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3911,13 +3938,13 @@
         <v>926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3947,13 +3974,13 @@
         <v>923</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3962,13 +3989,13 @@
         <v>923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4019,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +4064,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -4049,10 +4076,10 @@
         <v>19654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -4064,10 +4091,10 @@
         <v>44108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>19</v>
@@ -4144,7 +4171,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4159,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4174,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4216,13 @@
         <v>1437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4204,13 +4231,13 @@
         <v>3095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4219,13 +4246,13 @@
         <v>4531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4267,13 @@
         <v>701</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4255,13 +4282,13 @@
         <v>3644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4270,13 +4297,13 @@
         <v>4346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4318,13 @@
         <v>119669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4306,13 +4333,13 @@
         <v>102623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>312</v>
@@ -4321,13 +4348,13 @@
         <v>222292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,7 +4410,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4410,13 +4437,13 @@
         <v>656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4425,13 +4452,13 @@
         <v>656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4473,13 @@
         <v>4712</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4461,13 +4488,13 @@
         <v>1855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4476,13 +4503,13 @@
         <v>6567</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4524,13 @@
         <v>7829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4512,13 +4539,13 @@
         <v>1442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4527,13 +4554,13 @@
         <v>9270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4575,13 @@
         <v>194412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -4563,13 +4590,13 @@
         <v>188695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>573</v>
@@ -4578,13 +4605,13 @@
         <v>383107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4673,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4688,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4730,13 @@
         <v>3773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4718,13 +4745,13 @@
         <v>3729</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4733,13 +4760,13 @@
         <v>7502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4781,13 @@
         <v>7240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4769,13 +4796,13 @@
         <v>6173</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -4784,13 +4811,13 @@
         <v>13413</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4832,13 @@
         <v>145119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4820,13 +4847,13 @@
         <v>132698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -4835,13 +4862,13 @@
         <v>277818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4924,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4915,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4930,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4945,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4987,13 @@
         <v>2729</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4975,13 +5002,13 @@
         <v>3730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4990,13 +5017,13 @@
         <v>6460</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5038,13 @@
         <v>9579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5026,13 +5053,13 @@
         <v>9026</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5041,13 +5068,13 @@
         <v>18604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5089,13 @@
         <v>190146</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H27" s="7">
         <v>245</v>
@@ -5077,13 +5104,13 @@
         <v>187146</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M27" s="7">
         <v>503</v>
@@ -5092,13 +5119,13 @@
         <v>377292</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5181,13 +5208,13 @@
         <v>1581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5196,13 +5223,13 @@
         <v>1581</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5244,13 @@
         <v>12651</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -5232,13 +5259,13 @@
         <v>13332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -5247,13 +5274,13 @@
         <v>25983</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5295,13 @@
         <v>25349</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H31" s="7">
         <v>29</v>
@@ -5283,13 +5310,13 @@
         <v>20285</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -5298,13 +5325,13 @@
         <v>45633</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5346,13 @@
         <v>673800</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="H32" s="7">
         <v>909</v>
@@ -5334,13 +5361,13 @@
         <v>630816</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="M32" s="7">
         <v>1866</v>
@@ -5349,13 +5376,13 @@
         <v>1304616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,7 +5438,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5432,7 +5459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093B4A21-A679-41FB-BA06-4D29206E7105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA40081-6E17-448A-AF03-66BC5488E72A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5449,7 +5476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5562,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5577,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5592,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5634,13 @@
         <v>509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5628,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5637,13 +5664,13 @@
         <v>509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5685,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5673,13 +5700,13 @@
         <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5688,13 +5715,13 @@
         <v>1598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,10 +5736,10 @@
         <v>24502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -5724,10 +5751,10 @@
         <v>19811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -5739,13 +5766,13 @@
         <v>44314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5834,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5849,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5891,13 @@
         <v>1418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5879,13 +5906,13 @@
         <v>3296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5894,13 +5921,13 @@
         <v>4714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5942,13 @@
         <v>2981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5930,13 +5957,13 @@
         <v>3552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5945,13 +5972,13 @@
         <v>6533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5993,13 @@
         <v>103094</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -5981,13 +6008,13 @@
         <v>94987</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>278</v>
@@ -5996,13 +6023,13 @@
         <v>198081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6085,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6076,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6091,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6106,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6148,13 @@
         <v>2629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6136,13 +6163,13 @@
         <v>3177</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -6151,13 +6178,13 @@
         <v>5806</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6199,13 @@
         <v>6291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6187,13 +6214,13 @@
         <v>7686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -6202,13 +6229,13 @@
         <v>13977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6250,13 @@
         <v>199554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>295</v>
@@ -6238,13 +6265,13 @@
         <v>183010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>590</v>
@@ -6253,13 +6280,13 @@
         <v>382564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6348,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6363,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6405,13 @@
         <v>1845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6393,13 +6420,13 @@
         <v>2081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>34</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6408,13 +6435,13 @@
         <v>3926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6456,13 @@
         <v>4767</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -6444,13 +6471,13 @@
         <v>5361</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>382</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -6459,13 +6486,13 @@
         <v>10128</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6507,13 @@
         <v>139333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>217</v>
@@ -6495,13 +6522,13 @@
         <v>130168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>422</v>
@@ -6510,13 +6537,13 @@
         <v>269501</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6599,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6590,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6605,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6620,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6662,13 @@
         <v>2924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6650,13 +6677,13 @@
         <v>1516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6665,13 +6692,13 @@
         <v>4440</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6713,13 @@
         <v>15473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6701,13 +6728,13 @@
         <v>10774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -6716,13 +6743,13 @@
         <v>26248</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6764,13 @@
         <v>163177</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H27" s="7">
         <v>243</v>
@@ -6752,13 +6779,13 @@
         <v>180358</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="M27" s="7">
         <v>472</v>
@@ -6767,13 +6794,13 @@
         <v>343535</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6862,7 +6889,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6877,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6919,13 @@
         <v>9326</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -6907,13 +6934,13 @@
         <v>10070</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -6922,13 +6949,13 @@
         <v>19395</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6970,13 @@
         <v>30075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H31" s="7">
         <v>43</v>
@@ -6958,13 +6985,13 @@
         <v>28409</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -6973,13 +7000,13 @@
         <v>58484</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +7021,13 @@
         <v>629659</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H32" s="7">
         <v>915</v>
@@ -7009,13 +7036,13 @@
         <v>608336</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>434</v>
       </c>
       <c r="M32" s="7">
         <v>1811</v>
@@ -7024,13 +7051,13 @@
         <v>1237994</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7113,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7107,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF642618-1A7C-4A9A-893E-796C47C990C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F11B99-948C-4096-885E-54E8EED20E67}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7124,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7237,7 +7264,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7252,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7267,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,7 +7315,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7303,7 +7330,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7318,7 +7345,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7354,7 +7381,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7369,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,7 +7414,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -7402,7 +7429,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -7417,7 +7444,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -7494,7 +7521,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7509,7 +7536,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7524,7 +7551,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7554,13 +7581,13 @@
         <v>505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7569,13 +7596,13 @@
         <v>505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7617,13 @@
         <v>539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7605,13 +7632,13 @@
         <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -7620,13 +7647,13 @@
         <v>1132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,10 +7668,10 @@
         <v>15346</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -7656,10 +7683,10 @@
         <v>11239</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -7671,13 +7698,13 @@
         <v>26583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,7 +7760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7751,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7766,7 +7793,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7775,13 +7802,13 @@
         <v>391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7823,13 @@
         <v>598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>458</v>
+        <v>199</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -7811,13 +7838,13 @@
         <v>1313</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>328</v>
+        <v>466</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -7826,13 +7853,13 @@
         <v>1912</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7874,13 @@
         <v>1754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7862,13 +7889,13 @@
         <v>1058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -7877,13 +7904,13 @@
         <v>2812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7925,13 @@
         <v>46265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -7913,13 +7940,13 @@
         <v>26333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -7928,13 +7955,13 @@
         <v>72598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,7 +8035,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8023,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8038,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8080,13 @@
         <v>838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -8068,13 +8095,13 @@
         <v>5663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -8083,13 +8110,13 @@
         <v>6501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8131,13 @@
         <v>1556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -8119,13 +8146,13 @@
         <v>642</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -8134,13 +8161,13 @@
         <v>2198</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>490</v>
+        <v>311</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8182,13 @@
         <v>27457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8170,13 +8197,13 @@
         <v>19016</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -8185,13 +8212,13 @@
         <v>46474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,7 +8274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8265,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8280,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8295,7 +8322,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8337,13 @@
         <v>1946</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8325,13 +8352,13 @@
         <v>3010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -8340,13 +8367,13 @@
         <v>4956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8388,13 @@
         <v>559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -8376,13 +8403,13 @@
         <v>2146</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -8391,13 +8418,13 @@
         <v>2705</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8439,13 @@
         <v>24896</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>522</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>229</v>
+        <v>524</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -8427,13 +8454,13 @@
         <v>23450</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="M27" s="7">
         <v>71</v>
@@ -8442,13 +8469,13 @@
         <v>48347</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,7 +8549,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -8531,13 +8558,13 @@
         <v>391</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -8546,13 +8573,13 @@
         <v>391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8594,13 @@
         <v>3382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -8582,13 +8609,13 @@
         <v>10492</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -8597,13 +8624,13 @@
         <v>13874</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8645,13 @@
         <v>4409</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -8633,13 +8660,13 @@
         <v>4440</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>533</v>
+        <v>116</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8648,13 +8675,13 @@
         <v>8849</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>543</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8696,13 @@
         <v>118634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H32" s="7">
         <v>131</v>
@@ -8684,13 +8711,13 @@
         <v>84601</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M32" s="7">
         <v>307</v>
@@ -8699,13 +8726,13 @@
         <v>203235</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,7 +8788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
